--- a/doc/Attachment E Approach Criteria Evidence Pool 1.xlsx
+++ b/doc/Attachment E Approach Criteria Evidence Pool 1.xlsx
@@ -31,7 +31,7 @@
     <t>As part of our agile process, CTAC assigned a prototype project leader with the authority and responsibility for the development of the 18F Agile prototype, and accountability for the timely release and quality of the product. Our leaders are agile/scrum certified and with an average of 10 years of experience.</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/readme/MeetingMinutes18FBPAKick-off.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/readme/MeetingMinutes18FBPAKick-off.pdf?raw=true</t>
   </si>
   <si>
     <t>b</t>
@@ -54,25 +54,25 @@
 </t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryDesignDocumentation.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryDesignDocumentation.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryInitalInterviewQuestionnaire.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryInitalInterviewQuestionnaire.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryInitialInterviewResults.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryInitialInterviewResults.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryInterviewFindings.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryInterviewFindings.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/FeedbackForm-18F_Open_FDA.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/FeedbackForm-18F_Open_FDA.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryPrototypeUserTestingResult.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryPrototypeUserTestingResult.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/TestCase-18F_Open_FDA.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/TestCase-18F_Open_FDA.pdf?raw=true</t>
   </si>
   <si>
     <t>d</t>
@@ -84,16 +84,16 @@
     <t>Our agile team used a process of participatory design alongside six specific types of UCD techniques (Personas, User Interviews, Workflow Determination, User Testing, Prototyping, and Accessibility Testing) for determining user demographic, interviews with targeted users matching personas, iterative user-testing with hand-drawn wireframes and later with low-fidelity wireframes on paper.</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/PharmaQueryPersonas.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/PharmaQueryPersonas.pdf?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/Wireframes.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/Wireframes.pdf?raw=true</t>
   </si>
   <si>
     <t>http://i1bey5.axshare.com/</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/design_artifacts/IngredientBrowser.pdf?raw=true</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/design_artifacts/IngredientBrowser.pdf?raw=true</t>
   </si>
   <si>
     <t>e</t>
@@ -117,7 +117,7 @@
     <t>For this project, we used seven technologies including Bootstrap, Sass, jQuery, jQuery UI, D3.js, Handlebars.js</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/readme/open_source_technologies.md</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/readme/open_source_technologies.md</t>
   </si>
   <si>
     <t>g</t>
@@ -156,7 +156,7 @@
     <t>The final portion of the quality check process we used tested the integrity of the application by installing and running it solely using the installation documentation and instructions provided to ensure a dependency free deliverable that can be deployed into a fresh environment.</t>
   </si>
   <si>
-    <t>https://github.com/ctacdev/openfda_rfq/blob/develop/doc/readme/developer_installation.md</t>
+    <t>https://github.com/ctacdev/openfdapool1/blob/develop/doc/readme/developer_installation.md</t>
   </si>
   <si>
     <t>k</t>
